--- a/data/trans_orig/IP2003-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP2003-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EA8EAE0-5623-4FF7-B55E-9FD9970F4AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBB9631A-BE39-4CB4-857F-0E69FE3A179E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{7C0DE7DE-CE83-4602-B0B9-60DD66789C2D}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{3B50490C-D0B6-465C-B2CF-1C57BF2C67E2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,12 +68,132 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>84,64%</t>
   </si>
   <si>
@@ -101,9 +221,6 @@
     <t>84,49%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>15,36%</t>
   </si>
   <si>
@@ -131,64 +248,61 @@
     <t>21,37%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -248,120 +362,6 @@
     <t>14,89%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
     <t>85,76%</t>
   </si>
   <si>
@@ -413,6 +413,102 @@
     <t>Menores según si tienen dientes o muelas empastados en 2012 (Tasa respuesta: 93,28%)</t>
   </si>
   <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
     <t>86,0%</t>
   </si>
   <si>
@@ -467,52 +563,58 @@
     <t>19,81%</t>
   </si>
   <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
   </si>
   <si>
     <t>91,12%</t>
@@ -563,108 +665,6 @@
     <t>15,47%</t>
   </si>
   <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
     <t>86,81%</t>
   </si>
   <si>
@@ -722,6 +722,105 @@
     <t>Menores según si tienen dientes o muelas empastados en 2015 (Tasa respuesta: 93,51%)</t>
   </si>
   <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
     <t>85,33%</t>
   </si>
   <si>
@@ -770,58 +869,58 @@
     <t>17,59%</t>
   </si>
   <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
   </si>
   <si>
     <t>86,63%</t>
@@ -878,105 +977,6 @@
     <t>17,89%</t>
   </si>
   <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
     <t>87,03%</t>
   </si>
   <si>
@@ -1034,6 +1034,90 @@
     <t>Menores según si tienen dientes o muelas empastados en 2023 (Tasa respuesta: 97,24%)</t>
   </si>
   <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
     <t>85,81%</t>
   </si>
   <si>
@@ -1088,58 +1172,52 @@
     <t>15,98%</t>
   </si>
   <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
   </si>
   <si>
     <t>89,12%</t>
@@ -1188,84 +1266,6 @@
   </si>
   <si>
     <t>14,43%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
   </si>
   <si>
     <t>86,71%</t>
@@ -1705,7 +1705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC60D138-622B-4D32-BB8E-C7949E050730}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3443F196-CA30-4A40-82AA-D1AC4A6F5A9F}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1823,10 +1823,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>264</v>
+        <v>28</v>
       </c>
       <c r="D4" s="7">
-        <v>173428</v>
+        <v>21287</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1838,10 +1838,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>234</v>
+        <v>22</v>
       </c>
       <c r="I4" s="7">
-        <v>145784</v>
+        <v>16968</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1853,10 +1853,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>498</v>
+        <v>50</v>
       </c>
       <c r="N4" s="7">
-        <v>319212</v>
+        <v>38255</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1874,10 +1874,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>31474</v>
+        <v>961</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1889,10 +1889,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="I5" s="7">
-        <v>40000</v>
+        <v>5042</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1904,10 +1904,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>110</v>
+        <v>7</v>
       </c>
       <c r="N5" s="7">
-        <v>71474</v>
+        <v>6003</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1925,10 +1925,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>311</v>
+        <v>29</v>
       </c>
       <c r="D6" s="7">
-        <v>204902</v>
+        <v>22248</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1940,10 +1940,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>297</v>
+        <v>28</v>
       </c>
       <c r="I6" s="7">
-        <v>185784</v>
+        <v>22010</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1955,10 +1955,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>608</v>
+        <v>57</v>
       </c>
       <c r="N6" s="7">
-        <v>390686</v>
+        <v>44258</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2133,10 +2133,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="D10" s="7">
-        <v>173120</v>
+        <v>173428</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2148,10 +2148,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I10" s="7">
-        <v>176696</v>
+        <v>145784</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2163,10 +2163,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="N10" s="7">
-        <v>349816</v>
+        <v>319212</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2184,10 +2184,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D11" s="7">
-        <v>24019</v>
+        <v>31474</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2199,10 +2199,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="I11" s="7">
-        <v>22822</v>
+        <v>40000</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2214,10 +2214,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="N11" s="7">
-        <v>46841</v>
+        <v>71474</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2235,10 +2235,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="D12" s="7">
-        <v>197139</v>
+        <v>204902</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2250,10 +2250,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="I12" s="7">
-        <v>199518</v>
+        <v>185784</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2265,10 +2265,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>551</v>
+        <v>608</v>
       </c>
       <c r="N12" s="7">
-        <v>396657</v>
+        <v>390686</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2288,10 +2288,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>28</v>
+        <v>183</v>
       </c>
       <c r="D13" s="7">
-        <v>21287</v>
+        <v>118289</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2303,10 +2303,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>22</v>
+        <v>173</v>
       </c>
       <c r="I13" s="7">
-        <v>16968</v>
+        <v>103307</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2318,10 +2318,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>50</v>
+        <v>356</v>
       </c>
       <c r="N13" s="7">
-        <v>38255</v>
+        <v>221596</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2339,10 +2339,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D14" s="7">
-        <v>961</v>
+        <v>21053</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2354,10 +2354,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="I14" s="7">
-        <v>5042</v>
+        <v>27425</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2369,10 +2369,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="N14" s="7">
-        <v>6003</v>
+        <v>48478</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2390,10 +2390,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>29</v>
+        <v>216</v>
       </c>
       <c r="D15" s="7">
-        <v>22248</v>
+        <v>139342</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2405,10 +2405,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>28</v>
+        <v>217</v>
       </c>
       <c r="I15" s="7">
-        <v>22010</v>
+        <v>130732</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2420,10 +2420,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>57</v>
+        <v>433</v>
       </c>
       <c r="N15" s="7">
-        <v>44258</v>
+        <v>270074</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2443,10 +2443,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>183</v>
+        <v>256</v>
       </c>
       <c r="D16" s="7">
-        <v>118289</v>
+        <v>173120</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -2458,10 +2458,10 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>173</v>
+        <v>232</v>
       </c>
       <c r="I16" s="7">
-        <v>103307</v>
+        <v>176696</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -2473,10 +2473,10 @@
         <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>356</v>
+        <v>488</v>
       </c>
       <c r="N16" s="7">
-        <v>221596</v>
+        <v>349816</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -2494,10 +2494,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D17" s="7">
-        <v>21053</v>
+        <v>24019</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -2509,10 +2509,10 @@
         <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="I17" s="7">
-        <v>27425</v>
+        <v>22822</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -2524,10 +2524,10 @@
         <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="N17" s="7">
-        <v>48478</v>
+        <v>46841</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -2545,10 +2545,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>216</v>
+        <v>290</v>
       </c>
       <c r="D18" s="7">
-        <v>139342</v>
+        <v>197139</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2560,10 +2560,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>217</v>
+        <v>261</v>
       </c>
       <c r="I18" s="7">
-        <v>130732</v>
+        <v>199518</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2575,10 +2575,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>433</v>
+        <v>551</v>
       </c>
       <c r="N18" s="7">
-        <v>270074</v>
+        <v>396657</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2637,7 +2637,7 @@
         <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>114</v>
@@ -2691,7 +2691,7 @@
         <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2763,7 +2763,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F6E5ED6-28A3-4BF7-AFEA-38C96B42775D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F0EF00D-A09F-49A9-AECE-95ED85C80DAD}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2881,49 +2881,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>263</v>
+        <v>22</v>
       </c>
       <c r="D4" s="7">
-        <v>182963</v>
+        <v>20489</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>21</v>
+      </c>
+      <c r="I4" s="7">
+        <v>18242</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H4" s="7">
-        <v>238</v>
-      </c>
-      <c r="I4" s="7">
-        <v>153120</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>43</v>
+      </c>
+      <c r="N4" s="7">
+        <v>38730</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="M4" s="7">
-        <v>501</v>
-      </c>
-      <c r="N4" s="7">
-        <v>336083</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2932,49 +2932,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>29790</v>
+        <v>3213</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>3</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2555</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="H5" s="7">
-        <v>58</v>
-      </c>
-      <c r="I5" s="7">
-        <v>38399</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>7</v>
+      </c>
+      <c r="N5" s="7">
+        <v>5769</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="M5" s="7">
-        <v>103</v>
-      </c>
-      <c r="N5" s="7">
-        <v>68189</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2983,10 +2983,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>308</v>
+        <v>26</v>
       </c>
       <c r="D6" s="7">
-        <v>212753</v>
+        <v>23702</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2998,10 +2998,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>296</v>
+        <v>24</v>
       </c>
       <c r="I6" s="7">
-        <v>191519</v>
+        <v>20797</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3013,10 +3013,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>604</v>
+        <v>50</v>
       </c>
       <c r="N6" s="7">
-        <v>404272</v>
+        <v>44499</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3042,13 +3042,13 @@
         <v>96692</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H7" s="7">
         <v>131</v>
@@ -3057,13 +3057,13 @@
         <v>93562</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M7" s="7">
         <v>268</v>
@@ -3075,10 +3075,10 @@
         <v>110</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3093,13 +3093,13 @@
         <v>21733</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H8" s="7">
         <v>26</v>
@@ -3108,13 +3108,13 @@
         <v>18809</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M8" s="7">
         <v>57</v>
@@ -3126,10 +3126,10 @@
         <v>118</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,49 +3191,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="D10" s="7">
-        <v>178829</v>
+        <v>182963</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>238</v>
+      </c>
+      <c r="I10" s="7">
+        <v>153120</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H10" s="7">
-        <v>213</v>
-      </c>
-      <c r="I10" s="7">
-        <v>162715</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>501</v>
+      </c>
+      <c r="N10" s="7">
+        <v>336083</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="M10" s="7">
-        <v>455</v>
-      </c>
-      <c r="N10" s="7">
-        <v>341544</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3242,25 +3242,25 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D11" s="7">
-        <v>17437</v>
+        <v>29790</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>167</v>
       </c>
       <c r="H11" s="7">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="I11" s="7">
-        <v>30832</v>
+        <v>38399</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>168</v>
@@ -3272,10 +3272,10 @@
         <v>170</v>
       </c>
       <c r="M11" s="7">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="N11" s="7">
-        <v>48269</v>
+        <v>68189</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>171</v>
@@ -3293,10 +3293,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>266</v>
+        <v>308</v>
       </c>
       <c r="D12" s="7">
-        <v>196266</v>
+        <v>212753</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3308,10 +3308,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>252</v>
+        <v>296</v>
       </c>
       <c r="I12" s="7">
-        <v>193547</v>
+        <v>191519</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3323,10 +3323,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>518</v>
+        <v>604</v>
       </c>
       <c r="N12" s="7">
-        <v>389813</v>
+        <v>404272</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3346,49 +3346,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>22</v>
+        <v>204</v>
       </c>
       <c r="D13" s="7">
-        <v>20489</v>
+        <v>131669</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H13" s="7">
-        <v>21</v>
+        <v>193</v>
       </c>
       <c r="I13" s="7">
-        <v>18242</v>
+        <v>124023</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M13" s="7">
-        <v>43</v>
+        <v>397</v>
       </c>
       <c r="N13" s="7">
-        <v>38730</v>
+        <v>255691</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3397,49 +3397,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D14" s="7">
-        <v>3213</v>
+        <v>20624</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>85</v>
+        <v>183</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H14" s="7">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="I14" s="7">
-        <v>2555</v>
+        <v>20635</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M14" s="7">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="N14" s="7">
-        <v>5769</v>
+        <v>41260</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3448,10 +3448,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>26</v>
+        <v>236</v>
       </c>
       <c r="D15" s="7">
-        <v>23702</v>
+        <v>152293</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3463,10 +3463,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>24</v>
+        <v>225</v>
       </c>
       <c r="I15" s="7">
-        <v>20797</v>
+        <v>144658</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3478,10 +3478,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>50</v>
+        <v>461</v>
       </c>
       <c r="N15" s="7">
-        <v>44499</v>
+        <v>296951</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3501,49 +3501,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="D16" s="7">
-        <v>131669</v>
+        <v>178829</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>192</v>
+        <v>19</v>
       </c>
       <c r="H16" s="7">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="I16" s="7">
-        <v>124023</v>
+        <v>162715</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M16" s="7">
-        <v>397</v>
+        <v>455</v>
       </c>
       <c r="N16" s="7">
-        <v>255691</v>
+        <v>341544</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3552,25 +3552,25 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D17" s="7">
-        <v>20624</v>
+        <v>17437</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>200</v>
+        <v>28</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>201</v>
       </c>
       <c r="H17" s="7">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="I17" s="7">
-        <v>20635</v>
+        <v>30832</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>202</v>
@@ -3582,10 +3582,10 @@
         <v>204</v>
       </c>
       <c r="M17" s="7">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N17" s="7">
-        <v>41260</v>
+        <v>48269</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>205</v>
@@ -3603,10 +3603,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="D18" s="7">
-        <v>152293</v>
+        <v>196266</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3618,10 +3618,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="I18" s="7">
-        <v>144658</v>
+        <v>193547</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3633,10 +3633,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>461</v>
+        <v>518</v>
       </c>
       <c r="N18" s="7">
-        <v>296951</v>
+        <v>389813</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3821,7 +3821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ADA534A-FE1A-41DA-B998-9CF38E374FC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029920D7-0992-4EB1-9918-5B5C7977DA5A}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3939,49 +3939,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>267</v>
+        <v>27</v>
       </c>
       <c r="D4" s="7">
-        <v>179765</v>
+        <v>22779</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="7">
+        <v>19</v>
+      </c>
+      <c r="I4" s="7">
+        <v>17218</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="H4" s="7">
-        <v>269</v>
-      </c>
-      <c r="I4" s="7">
-        <v>166529</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>46</v>
+      </c>
+      <c r="N4" s="7">
+        <v>39997</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="M4" s="7">
-        <v>536</v>
-      </c>
-      <c r="N4" s="7">
-        <v>346293</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3990,49 +3990,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>30912</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>4</v>
+      </c>
+      <c r="I5" s="7">
+        <v>4265</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="H5" s="7">
-        <v>41</v>
-      </c>
-      <c r="I5" s="7">
-        <v>26707</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>4</v>
+      </c>
+      <c r="N5" s="7">
+        <v>4265</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="M5" s="7">
-        <v>85</v>
-      </c>
-      <c r="N5" s="7">
-        <v>57619</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4041,10 +4041,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>311</v>
+        <v>27</v>
       </c>
       <c r="D6" s="7">
-        <v>210677</v>
+        <v>22779</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4056,10 +4056,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>310</v>
+        <v>23</v>
       </c>
       <c r="I6" s="7">
-        <v>193236</v>
+        <v>21483</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4071,10 +4071,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>621</v>
+        <v>50</v>
       </c>
       <c r="N6" s="7">
-        <v>403912</v>
+        <v>44262</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4100,13 +4100,13 @@
         <v>103079</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H7" s="7">
         <v>135</v>
@@ -4115,13 +4115,13 @@
         <v>92921</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M7" s="7">
         <v>273</v>
@@ -4130,13 +4130,13 @@
         <v>196000</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4151,13 +4151,13 @@
         <v>13252</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H8" s="7">
         <v>15</v>
@@ -4166,13 +4166,13 @@
         <v>10266</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M8" s="7">
         <v>33</v>
@@ -4181,13 +4181,13 @@
         <v>23517</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,49 +4249,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="D10" s="7">
-        <v>165187</v>
+        <v>179765</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>269</v>
+      </c>
+      <c r="I10" s="7">
+        <v>166529</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="H10" s="7">
-        <v>220</v>
-      </c>
-      <c r="I10" s="7">
-        <v>161702</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>536</v>
+      </c>
+      <c r="N10" s="7">
+        <v>346293</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="M10" s="7">
-        <v>454</v>
-      </c>
-      <c r="N10" s="7">
-        <v>326889</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4300,49 +4300,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D11" s="7">
-        <v>25494</v>
+        <v>30912</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="H11" s="7">
         <v>41</v>
       </c>
       <c r="I11" s="7">
-        <v>30781</v>
+        <v>26707</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="M11" s="7">
+        <v>85</v>
+      </c>
+      <c r="N11" s="7">
+        <v>57619</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="M11" s="7">
-        <v>75</v>
-      </c>
-      <c r="N11" s="7">
-        <v>56274</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4351,10 +4351,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>268</v>
+        <v>311</v>
       </c>
       <c r="D12" s="7">
-        <v>190681</v>
+        <v>210677</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4366,10 +4366,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>261</v>
+        <v>310</v>
       </c>
       <c r="I12" s="7">
-        <v>192483</v>
+        <v>193236</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4381,10 +4381,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>529</v>
+        <v>621</v>
       </c>
       <c r="N12" s="7">
-        <v>383163</v>
+        <v>403912</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4404,49 +4404,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>27</v>
+        <v>208</v>
       </c>
       <c r="D13" s="7">
-        <v>22779</v>
+        <v>139184</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>72</v>
+        <v>276</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H13" s="7">
+        <v>217</v>
+      </c>
+      <c r="I13" s="7">
+        <v>131230</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="7">
-        <v>19</v>
-      </c>
-      <c r="I13" s="7">
-        <v>17218</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>425</v>
+      </c>
+      <c r="N13" s="7">
+        <v>270413</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="M13" s="7">
-        <v>46</v>
-      </c>
-      <c r="N13" s="7">
-        <v>39997</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4455,13 +4455,13 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>21243</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>80</v>
+        <v>285</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>286</v>
@@ -4470,10 +4470,10 @@
         <v>287</v>
       </c>
       <c r="H14" s="7">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="I14" s="7">
-        <v>4265</v>
+        <v>16937</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>288</v>
@@ -4485,10 +4485,10 @@
         <v>290</v>
       </c>
       <c r="M14" s="7">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="N14" s="7">
-        <v>4265</v>
+        <v>38181</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>291</v>
@@ -4506,10 +4506,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>27</v>
+        <v>238</v>
       </c>
       <c r="D15" s="7">
-        <v>22779</v>
+        <v>160427</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4521,10 +4521,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>23</v>
+        <v>244</v>
       </c>
       <c r="I15" s="7">
-        <v>21483</v>
+        <v>148167</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4536,10 +4536,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>50</v>
+        <v>482</v>
       </c>
       <c r="N15" s="7">
-        <v>44262</v>
+        <v>308594</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4559,10 +4559,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="D16" s="7">
-        <v>139184</v>
+        <v>165187</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>294</v>
@@ -4574,10 +4574,10 @@
         <v>296</v>
       </c>
       <c r="H16" s="7">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="I16" s="7">
-        <v>131230</v>
+        <v>161702</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>297</v>
@@ -4589,10 +4589,10 @@
         <v>299</v>
       </c>
       <c r="M16" s="7">
-        <v>425</v>
+        <v>454</v>
       </c>
       <c r="N16" s="7">
-        <v>270413</v>
+        <v>326889</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>300</v>
@@ -4610,10 +4610,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D17" s="7">
-        <v>21243</v>
+        <v>25494</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>303</v>
@@ -4625,10 +4625,10 @@
         <v>305</v>
       </c>
       <c r="H17" s="7">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="I17" s="7">
-        <v>16937</v>
+        <v>30781</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>306</v>
@@ -4640,10 +4640,10 @@
         <v>308</v>
       </c>
       <c r="M17" s="7">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="N17" s="7">
-        <v>38181</v>
+        <v>56274</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>309</v>
@@ -4661,10 +4661,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="D18" s="7">
-        <v>160427</v>
+        <v>190681</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4676,10 +4676,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="I18" s="7">
-        <v>148167</v>
+        <v>192483</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4691,10 +4691,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>482</v>
+        <v>529</v>
       </c>
       <c r="N18" s="7">
-        <v>308594</v>
+        <v>383163</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4879,7 +4879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F0516A-C88F-4711-9A1F-AC9C085FFE25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA435BCE-7A94-445B-95FF-93EFB899DA42}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4997,49 +4997,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>288</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7">
-        <v>209741</v>
+        <v>11430</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="7">
+        <v>26</v>
+      </c>
+      <c r="I4" s="7">
+        <v>15308</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="H4" s="7">
-        <v>248</v>
-      </c>
-      <c r="I4" s="7">
-        <v>171298</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>43</v>
+      </c>
+      <c r="N4" s="7">
+        <v>26738</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="M4" s="7">
-        <v>536</v>
-      </c>
-      <c r="N4" s="7">
-        <v>381039</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>338</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>339</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5048,49 +5048,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>34697</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="H5" s="7">
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1479</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="M5" s="7">
+        <v>2</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1479</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="H5" s="7">
-        <v>24</v>
-      </c>
-      <c r="I5" s="7">
-        <v>17518</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="M5" s="7">
-        <v>64</v>
-      </c>
-      <c r="N5" s="7">
-        <v>52215</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5099,10 +5099,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>328</v>
+        <v>17</v>
       </c>
       <c r="D6" s="7">
-        <v>244438</v>
+        <v>11430</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5114,10 +5114,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>272</v>
+        <v>28</v>
       </c>
       <c r="I6" s="7">
-        <v>188816</v>
+        <v>16787</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5129,10 +5129,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>600</v>
+        <v>45</v>
       </c>
       <c r="N6" s="7">
-        <v>433254</v>
+        <v>28217</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5158,13 +5158,13 @@
         <v>101430</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="H7" s="7">
         <v>145</v>
@@ -5173,13 +5173,13 @@
         <v>91570</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="M7" s="7">
         <v>285</v>
@@ -5188,13 +5188,13 @@
         <v>193000</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5209,13 +5209,13 @@
         <v>10962</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="H8" s="7">
         <v>17</v>
@@ -5224,13 +5224,13 @@
         <v>10079</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="M8" s="7">
         <v>24</v>
@@ -5239,13 +5239,13 @@
         <v>21041</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5307,49 +5307,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>208</v>
+        <v>288</v>
       </c>
       <c r="D10" s="7">
-        <v>153231</v>
+        <v>209741</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="H10" s="7">
+        <v>248</v>
+      </c>
+      <c r="I10" s="7">
+        <v>171298</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="M10" s="7">
+        <v>536</v>
+      </c>
+      <c r="N10" s="7">
+        <v>381039</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="H10" s="7">
-        <v>209</v>
-      </c>
-      <c r="I10" s="7">
-        <v>149620</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="M10" s="7">
-        <v>417</v>
-      </c>
-      <c r="N10" s="7">
-        <v>302851</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5358,49 +5358,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D11" s="7">
-        <v>18714</v>
+        <v>34697</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="H11" s="7">
+        <v>24</v>
+      </c>
+      <c r="I11" s="7">
+        <v>17518</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="M11" s="7">
+        <v>64</v>
+      </c>
+      <c r="N11" s="7">
+        <v>52215</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="H11" s="7">
-        <v>27</v>
-      </c>
-      <c r="I11" s="7">
-        <v>20427</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="M11" s="7">
-        <v>52</v>
-      </c>
-      <c r="N11" s="7">
-        <v>39141</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5409,10 +5409,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>233</v>
+        <v>328</v>
       </c>
       <c r="D12" s="7">
-        <v>171945</v>
+        <v>244438</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5424,10 +5424,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>236</v>
+        <v>272</v>
       </c>
       <c r="I12" s="7">
-        <v>170047</v>
+        <v>188816</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5439,10 +5439,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>469</v>
+        <v>600</v>
       </c>
       <c r="N12" s="7">
-        <v>341992</v>
+        <v>433254</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5462,49 +5462,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>17</v>
+        <v>184</v>
       </c>
       <c r="D13" s="7">
-        <v>11430</v>
+        <v>141430</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>72</v>
+        <v>335</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H13" s="7">
+        <v>173</v>
+      </c>
+      <c r="I13" s="7">
+        <v>121960</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="M13" s="7">
+        <v>357</v>
+      </c>
+      <c r="N13" s="7">
+        <v>263390</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="7">
-        <v>26</v>
-      </c>
-      <c r="I13" s="7">
-        <v>15308</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M13" s="7">
-        <v>43</v>
-      </c>
-      <c r="N13" s="7">
-        <v>26738</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5513,46 +5513,46 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>30227</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>80</v>
+        <v>340</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="H14" s="7">
+        <v>50</v>
+      </c>
+      <c r="I14" s="7">
+        <v>44321</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1479</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>87</v>
+      </c>
+      <c r="N14" s="7">
+        <v>74548</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="M14" s="7">
-        <v>2</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1479</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>392</v>
@@ -5564,10 +5564,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>17</v>
+        <v>221</v>
       </c>
       <c r="D15" s="7">
-        <v>11430</v>
+        <v>171657</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5579,10 +5579,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>28</v>
+        <v>223</v>
       </c>
       <c r="I15" s="7">
-        <v>16787</v>
+        <v>166281</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5594,10 +5594,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>45</v>
+        <v>444</v>
       </c>
       <c r="N15" s="7">
-        <v>28217</v>
+        <v>337938</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5617,43 +5617,43 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="D16" s="7">
-        <v>141430</v>
+        <v>153231</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H16" s="7">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="I16" s="7">
-        <v>121960</v>
+        <v>149620</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M16" s="7">
-        <v>357</v>
+        <v>417</v>
       </c>
       <c r="N16" s="7">
-        <v>263390</v>
+        <v>302851</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>398</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>399</v>
@@ -5668,43 +5668,43 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D17" s="7">
-        <v>30227</v>
+        <v>18714</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H17" s="7">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I17" s="7">
-        <v>44321</v>
+        <v>20427</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M17" s="7">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="N17" s="7">
-        <v>74548</v>
+        <v>39141</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>406</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>407</v>
@@ -5719,10 +5719,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="D18" s="7">
-        <v>171657</v>
+        <v>171945</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5734,10 +5734,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="I18" s="7">
-        <v>166281</v>
+        <v>170047</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5749,10 +5749,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>444</v>
+        <v>469</v>
       </c>
       <c r="N18" s="7">
-        <v>337938</v>
+        <v>341992</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/IP2003-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP2003-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBB9631A-BE39-4CB4-857F-0E69FE3A179E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84154926-C1D7-40A2-9833-115DFAB65836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{3B50490C-D0B6-465C-B2CF-1C57BF2C67E2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{533F215D-0D1D-422D-883D-677E944B82B1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="420">
   <si>
     <t>Menores según si tienen dientes o muelas empastados en 2007 (Tasa respuesta: 94,72%)</t>
   </si>
@@ -71,13 +71,43 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
     <t>95,68%</t>
   </si>
   <si>
-    <t>79,14%</t>
+    <t>73,32%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -86,49 +116,19 @@
     <t>77,09%</t>
   </si>
   <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
   </si>
   <si>
     <t>86,44%</t>
   </si>
   <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,1183 +137,1168 @@
     <t>2/10</t>
   </si>
   <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
     <t>83,48%</t>
   </si>
   <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
   </si>
   <si>
     <t>83,16%</t>
   </si>
   <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
   </si>
   <si>
     <t>83,33%</t>
   </si>
   <si>
-    <t>78,8%</t>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si tienen dientes o muelas empastados en 2012 (Tasa respuesta: 93,28%)</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
   </si>
   <si>
     <t>86,96%</t>
   </si>
   <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>Menores según si tienen dientes o muelas empastados en 2015 (Tasa respuesta: 93,51%)</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>Menores según si tienen dientes o muelas empastados en 2023 (Tasa respuesta: 97,24%)</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
   </si>
   <si>
     <t>78,63%</t>
   </si>
   <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>Menores según si tienen dientes o muelas empastados en 2012 (Tasa respuesta: 93,28%)</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
   </si>
   <si>
     <t>89,15%</t>
   </si>
   <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>Menores según si tienen dientes o muelas empastados en 2015 (Tasa respuesta: 93,51%)</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
   </si>
   <si>
     <t>83,53%</t>
   </si>
   <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>Menores según si tienen dientes o muelas empastados en 2023 (Tasa respuesta: 97,24%)</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
+    <t>87,9%</t>
   </si>
 </sst>
 </file>
@@ -1324,7 +1309,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1420,39 +1405,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1504,7 +1489,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1615,13 +1600,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1630,6 +1608,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1694,19 +1679,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3443F196-CA30-4A40-82AA-D1AC4A6F5A9F}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB21781A-13A2-4E71-BE5C-ABEA435CA0F1}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1823,10 +1828,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>21287</v>
+        <v>961</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1838,10 +1843,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>16968</v>
+        <v>5042</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1853,10 +1858,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="N4" s="7">
-        <v>38255</v>
+        <v>6003</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1874,10 +1879,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D5" s="7">
-        <v>961</v>
+        <v>21287</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1889,10 +1894,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="I5" s="7">
-        <v>5042</v>
+        <v>16968</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1904,10 +1909,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="N5" s="7">
-        <v>6003</v>
+        <v>38255</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1978,10 +1983,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>154</v>
+        <v>30</v>
       </c>
       <c r="D7" s="7">
-        <v>101231</v>
+        <v>20028</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1993,10 +1998,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>133</v>
+        <v>27</v>
       </c>
       <c r="I7" s="7">
-        <v>88979</v>
+        <v>18017</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2008,10 +2013,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>287</v>
+        <v>57</v>
       </c>
       <c r="N7" s="7">
-        <v>190212</v>
+        <v>38044</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2029,10 +2034,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="D8" s="7">
-        <v>20028</v>
+        <v>101231</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2044,10 +2049,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="I8" s="7">
-        <v>18017</v>
+        <v>88979</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2059,10 +2064,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>57</v>
+        <v>287</v>
       </c>
       <c r="N8" s="7">
-        <v>38044</v>
+        <v>190212</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2133,10 +2138,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>264</v>
+        <v>47</v>
       </c>
       <c r="D10" s="7">
-        <v>173428</v>
+        <v>31474</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2148,10 +2153,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>234</v>
+        <v>63</v>
       </c>
       <c r="I10" s="7">
-        <v>145784</v>
+        <v>40000</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2163,10 +2168,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>498</v>
+        <v>110</v>
       </c>
       <c r="N10" s="7">
-        <v>319212</v>
+        <v>71474</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2184,10 +2189,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>47</v>
+        <v>264</v>
       </c>
       <c r="D11" s="7">
-        <v>31474</v>
+        <v>173428</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2199,10 +2204,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>63</v>
+        <v>234</v>
       </c>
       <c r="I11" s="7">
-        <v>40000</v>
+        <v>145784</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2214,10 +2219,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>110</v>
+        <v>498</v>
       </c>
       <c r="N11" s="7">
-        <v>71474</v>
+        <v>319212</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2288,10 +2293,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>183</v>
+        <v>33</v>
       </c>
       <c r="D13" s="7">
-        <v>118289</v>
+        <v>21053</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2303,10 +2308,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>173</v>
+        <v>44</v>
       </c>
       <c r="I13" s="7">
-        <v>103307</v>
+        <v>27425</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2318,10 +2323,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>356</v>
+        <v>77</v>
       </c>
       <c r="N13" s="7">
-        <v>221596</v>
+        <v>48478</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2339,10 +2344,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>33</v>
+        <v>183</v>
       </c>
       <c r="D14" s="7">
-        <v>21053</v>
+        <v>118289</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2354,10 +2359,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>44</v>
+        <v>173</v>
       </c>
       <c r="I14" s="7">
-        <v>27425</v>
+        <v>103307</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2369,10 +2374,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>77</v>
+        <v>356</v>
       </c>
       <c r="N14" s="7">
-        <v>48478</v>
+        <v>221596</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2443,10 +2448,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>256</v>
+        <v>34</v>
       </c>
       <c r="D16" s="7">
-        <v>173120</v>
+        <v>24019</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -2458,10 +2463,10 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>232</v>
+        <v>29</v>
       </c>
       <c r="I16" s="7">
-        <v>176696</v>
+        <v>22822</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -2473,19 +2478,19 @@
         <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>488</v>
+        <v>63</v>
       </c>
       <c r="N16" s="7">
-        <v>349816</v>
+        <v>46841</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2494,49 +2499,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>34</v>
+        <v>256</v>
       </c>
       <c r="D17" s="7">
-        <v>24019</v>
+        <v>173120</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>232</v>
+      </c>
+      <c r="I17" s="7">
+        <v>176696</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>29</v>
-      </c>
-      <c r="I17" s="7">
-        <v>22822</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>488</v>
+      </c>
+      <c r="N17" s="7">
+        <v>349816</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>63</v>
-      </c>
-      <c r="N17" s="7">
-        <v>46841</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2598,49 +2603,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>885</v>
+        <v>145</v>
       </c>
       <c r="D19" s="7">
-        <v>587355</v>
+        <v>97535</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>169</v>
+      </c>
+      <c r="I19" s="7">
+        <v>113305</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H19" s="7">
-        <v>794</v>
-      </c>
-      <c r="I19" s="7">
-        <v>531735</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>314</v>
+      </c>
+      <c r="N19" s="7">
+        <v>210840</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="M19" s="7">
-        <v>1679</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1119090</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2649,49 +2654,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>145</v>
+        <v>885</v>
       </c>
       <c r="D20" s="7">
-        <v>97535</v>
+        <v>587355</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>794</v>
+      </c>
+      <c r="I20" s="7">
+        <v>531735</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="H20" s="7">
-        <v>169</v>
-      </c>
-      <c r="I20" s="7">
-        <v>113305</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>1679</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1119090</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="M20" s="7">
-        <v>314</v>
-      </c>
-      <c r="N20" s="7">
-        <v>210840</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2743,6 +2748,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2763,8 +2773,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F0EF00D-A09F-49A9-AECE-95ED85C80DAD}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64DDE1C0-28C9-425F-948C-2A27D7D39ED7}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2780,7 +2790,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2881,49 +2891,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>20489</v>
+        <v>3213</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H4" s="7">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>18242</v>
+        <v>2555</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M4" s="7">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="N4" s="7">
-        <v>38730</v>
+        <v>5769</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2932,49 +2942,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D5" s="7">
-        <v>3213</v>
+        <v>20489</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="I5" s="7">
-        <v>2555</v>
+        <v>18242</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M5" s="7">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="N5" s="7">
-        <v>5769</v>
+        <v>38730</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3036,49 +3046,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>137</v>
+        <v>31</v>
       </c>
       <c r="D7" s="7">
-        <v>96692</v>
+        <v>21733</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H7" s="7">
-        <v>131</v>
+        <v>26</v>
       </c>
       <c r="I7" s="7">
-        <v>93562</v>
+        <v>18809</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M7" s="7">
-        <v>268</v>
+        <v>57</v>
       </c>
       <c r="N7" s="7">
-        <v>190254</v>
+        <v>40542</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3087,49 +3097,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="D8" s="7">
-        <v>21733</v>
+        <v>96692</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H8" s="7">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="I8" s="7">
-        <v>18809</v>
+        <v>93562</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M8" s="7">
-        <v>57</v>
+        <v>268</v>
       </c>
       <c r="N8" s="7">
-        <v>40542</v>
+        <v>190254</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,49 +3201,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>263</v>
+        <v>45</v>
       </c>
       <c r="D10" s="7">
-        <v>182963</v>
+        <v>29790</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H10" s="7">
-        <v>238</v>
+        <v>58</v>
       </c>
       <c r="I10" s="7">
-        <v>153120</v>
+        <v>38399</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M10" s="7">
-        <v>501</v>
+        <v>103</v>
       </c>
       <c r="N10" s="7">
-        <v>336083</v>
+        <v>68189</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3242,49 +3252,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>45</v>
+        <v>263</v>
       </c>
       <c r="D11" s="7">
-        <v>29790</v>
+        <v>182963</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H11" s="7">
-        <v>58</v>
+        <v>238</v>
       </c>
       <c r="I11" s="7">
-        <v>38399</v>
+        <v>153120</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M11" s="7">
-        <v>103</v>
+        <v>501</v>
       </c>
       <c r="N11" s="7">
-        <v>68189</v>
+        <v>336083</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3346,49 +3356,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>204</v>
+        <v>32</v>
       </c>
       <c r="D13" s="7">
-        <v>131669</v>
+        <v>20624</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H13" s="7">
-        <v>193</v>
+        <v>32</v>
       </c>
       <c r="I13" s="7">
-        <v>124023</v>
+        <v>20635</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M13" s="7">
-        <v>397</v>
+        <v>64</v>
       </c>
       <c r="N13" s="7">
-        <v>255691</v>
+        <v>41260</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3397,49 +3407,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>32</v>
+        <v>204</v>
       </c>
       <c r="D14" s="7">
-        <v>20624</v>
+        <v>131669</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H14" s="7">
-        <v>32</v>
+        <v>193</v>
       </c>
       <c r="I14" s="7">
-        <v>20635</v>
+        <v>124023</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M14" s="7">
-        <v>64</v>
+        <v>397</v>
       </c>
       <c r="N14" s="7">
-        <v>41260</v>
+        <v>255691</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,49 +3511,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>242</v>
+        <v>24</v>
       </c>
       <c r="D16" s="7">
-        <v>178829</v>
+        <v>17437</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>19</v>
+        <v>195</v>
       </c>
       <c r="H16" s="7">
-        <v>213</v>
+        <v>39</v>
       </c>
       <c r="I16" s="7">
-        <v>162715</v>
+        <v>30832</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M16" s="7">
-        <v>455</v>
+        <v>63</v>
       </c>
       <c r="N16" s="7">
-        <v>341544</v>
+        <v>48269</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3552,49 +3562,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>24</v>
+        <v>242</v>
       </c>
       <c r="D17" s="7">
-        <v>17437</v>
+        <v>178829</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>28</v>
+        <v>203</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="H17" s="7">
-        <v>39</v>
+        <v>213</v>
       </c>
       <c r="I17" s="7">
-        <v>30832</v>
+        <v>162715</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="M17" s="7">
-        <v>63</v>
+        <v>455</v>
       </c>
       <c r="N17" s="7">
-        <v>48269</v>
+        <v>341544</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3656,49 +3666,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>868</v>
+        <v>136</v>
       </c>
       <c r="D19" s="7">
-        <v>610643</v>
+        <v>92797</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H19" s="7">
-        <v>796</v>
+        <v>158</v>
       </c>
       <c r="I19" s="7">
-        <v>551660</v>
+        <v>111231</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M19" s="7">
-        <v>1664</v>
+        <v>294</v>
       </c>
       <c r="N19" s="7">
-        <v>1162303</v>
+        <v>204028</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3707,49 +3717,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>136</v>
+        <v>868</v>
       </c>
       <c r="D20" s="7">
-        <v>92797</v>
+        <v>610643</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H20" s="7">
-        <v>158</v>
+        <v>796</v>
       </c>
       <c r="I20" s="7">
-        <v>111231</v>
+        <v>551660</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M20" s="7">
-        <v>294</v>
+        <v>1664</v>
       </c>
       <c r="N20" s="7">
-        <v>204028</v>
+        <v>1162303</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3801,6 +3811,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3821,8 +3836,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029920D7-0992-4EB1-9918-5B5C7977DA5A}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27224870-7097-4F63-8CFA-A183F9FBEB14}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3838,7 +3853,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3939,49 +3954,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>22779</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>30</v>
+        <v>231</v>
       </c>
       <c r="H4" s="7">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>17218</v>
+        <v>4265</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M4" s="7">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>39997</v>
+        <v>4265</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3990,49 +4005,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>22779</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>235</v>
+        <v>30</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="I5" s="7">
-        <v>4265</v>
+        <v>17218</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M5" s="7">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="N5" s="7">
-        <v>4265</v>
+        <v>39997</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,49 +4109,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>138</v>
+        <v>18</v>
       </c>
       <c r="D7" s="7">
-        <v>103079</v>
+        <v>13252</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="H7" s="7">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c r="I7" s="7">
-        <v>92921</v>
+        <v>10266</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="M7" s="7">
-        <v>273</v>
+        <v>33</v>
       </c>
       <c r="N7" s="7">
-        <v>196000</v>
+        <v>23517</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4145,49 +4160,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>18</v>
+        <v>138</v>
       </c>
       <c r="D8" s="7">
-        <v>13252</v>
+        <v>103079</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H8" s="7">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="I8" s="7">
-        <v>10266</v>
+        <v>92921</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="M8" s="7">
-        <v>33</v>
+        <v>273</v>
       </c>
       <c r="N8" s="7">
-        <v>23517</v>
+        <v>196000</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,49 +4264,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>44</v>
+      </c>
+      <c r="D10" s="7">
+        <v>30912</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H10" s="7">
+        <v>41</v>
+      </c>
+      <c r="I10" s="7">
+        <v>26707</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="D10" s="7">
-        <v>179765</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="H10" s="7">
+      <c r="L10" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="M10" s="7">
+        <v>85</v>
+      </c>
+      <c r="N10" s="7">
+        <v>57619</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="I10" s="7">
-        <v>166529</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="M10" s="7">
-        <v>536</v>
-      </c>
-      <c r="N10" s="7">
-        <v>346293</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>265</v>
-      </c>
       <c r="P10" s="7" t="s">
-        <v>266</v>
+        <v>92</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4300,49 +4315,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>44</v>
+        <v>267</v>
       </c>
       <c r="D11" s="7">
-        <v>30912</v>
+        <v>179765</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="H11" s="7">
         <v>269</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="H11" s="7">
-        <v>41</v>
-      </c>
       <c r="I11" s="7">
-        <v>26707</v>
+        <v>166529</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>172</v>
+        <v>274</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="M11" s="7">
-        <v>85</v>
+        <v>536</v>
       </c>
       <c r="N11" s="7">
-        <v>57619</v>
+        <v>346293</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>275</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4404,49 +4419,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>208</v>
+        <v>30</v>
       </c>
       <c r="D13" s="7">
-        <v>139184</v>
+        <v>21243</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>276</v>
+        <v>39</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H13" s="7">
-        <v>217</v>
+        <v>27</v>
       </c>
       <c r="I13" s="7">
-        <v>131230</v>
+        <v>16937</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M13" s="7">
-        <v>425</v>
+        <v>57</v>
       </c>
       <c r="N13" s="7">
-        <v>270413</v>
+        <v>38181</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>283</v>
+        <v>15</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4455,13 +4470,13 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>30</v>
+        <v>208</v>
       </c>
       <c r="D14" s="7">
-        <v>21243</v>
+        <v>139184</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>285</v>
+        <v>49</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>286</v>
@@ -4470,10 +4485,10 @@
         <v>287</v>
       </c>
       <c r="H14" s="7">
-        <v>27</v>
+        <v>217</v>
       </c>
       <c r="I14" s="7">
-        <v>16937</v>
+        <v>131230</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>288</v>
@@ -4485,10 +4500,10 @@
         <v>290</v>
       </c>
       <c r="M14" s="7">
-        <v>57</v>
+        <v>425</v>
       </c>
       <c r="N14" s="7">
-        <v>38181</v>
+        <v>270413</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>291</v>
@@ -4497,7 +4512,7 @@
         <v>292</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>293</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4559,49 +4574,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>234</v>
+        <v>34</v>
       </c>
       <c r="D16" s="7">
-        <v>165187</v>
+        <v>25494</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>41</v>
+      </c>
+      <c r="I16" s="7">
+        <v>30781</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="H16" s="7">
-        <v>220</v>
-      </c>
-      <c r="I16" s="7">
-        <v>161702</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>75</v>
+      </c>
+      <c r="N16" s="7">
+        <v>56274</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="M16" s="7">
-        <v>454</v>
-      </c>
-      <c r="N16" s="7">
-        <v>326889</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4610,49 +4625,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>34</v>
+        <v>234</v>
       </c>
       <c r="D17" s="7">
-        <v>25494</v>
+        <v>165187</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>220</v>
+      </c>
+      <c r="I17" s="7">
+        <v>161702</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="H17" s="7">
-        <v>41</v>
-      </c>
-      <c r="I17" s="7">
-        <v>30781</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>454</v>
+      </c>
+      <c r="N17" s="7">
+        <v>326889</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="M17" s="7">
-        <v>75</v>
-      </c>
-      <c r="N17" s="7">
-        <v>56274</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4714,49 +4729,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>874</v>
+        <v>126</v>
       </c>
       <c r="D19" s="7">
-        <v>609994</v>
+        <v>90901</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>128</v>
+      </c>
+      <c r="I19" s="7">
+        <v>88955</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="H19" s="7">
-        <v>860</v>
-      </c>
-      <c r="I19" s="7">
-        <v>569599</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>254</v>
+      </c>
+      <c r="N19" s="7">
+        <v>179856</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="M19" s="7">
-        <v>1734</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1179593</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4765,49 +4780,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>126</v>
+        <v>874</v>
       </c>
       <c r="D20" s="7">
-        <v>90901</v>
+        <v>609994</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>860</v>
+      </c>
+      <c r="I20" s="7">
+        <v>569599</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="H20" s="7">
-        <v>128</v>
-      </c>
-      <c r="I20" s="7">
-        <v>88955</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>1734</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1179593</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="M20" s="7">
-        <v>254</v>
-      </c>
-      <c r="N20" s="7">
-        <v>179856</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4859,6 +4874,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4879,8 +4899,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA435BCE-7A94-445B-95FF-93EFB899DA42}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD22D4A8-95DB-4067-BDD7-7CFE832F64BF}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4896,7 +4916,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4997,49 +5017,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>11430</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H4" s="7">
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1479</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="M4" s="7">
+        <v>2</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1479</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="7">
-        <v>26</v>
-      </c>
-      <c r="I4" s="7">
-        <v>15308</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="7">
-        <v>43</v>
-      </c>
-      <c r="N4" s="7">
-        <v>26738</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5048,49 +5068,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>11430</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>234</v>
+        <v>168</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>336</v>
+        <v>30</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="I5" s="7">
-        <v>1479</v>
+        <v>15308</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>333</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>338</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="N5" s="7">
-        <v>1479</v>
+        <v>26738</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>335</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>340</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5152,49 +5172,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>140</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>101430</v>
+        <v>10962</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="H7" s="7">
+        <v>17</v>
+      </c>
+      <c r="I7" s="7">
+        <v>10079</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>24</v>
+      </c>
+      <c r="N7" s="7">
+        <v>21041</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="H7" s="7">
-        <v>145</v>
-      </c>
-      <c r="I7" s="7">
-        <v>91570</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="M7" s="7">
-        <v>285</v>
-      </c>
-      <c r="N7" s="7">
-        <v>193000</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5203,49 +5223,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>7</v>
+        <v>140</v>
       </c>
       <c r="D8" s="7">
-        <v>10962</v>
+        <v>101430</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="H8" s="7">
+        <v>145</v>
+      </c>
+      <c r="I8" s="7">
+        <v>91570</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>285</v>
+      </c>
+      <c r="N8" s="7">
+        <v>193000</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="H8" s="7">
-        <v>17</v>
-      </c>
-      <c r="I8" s="7">
-        <v>10079</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="M8" s="7">
-        <v>24</v>
-      </c>
-      <c r="N8" s="7">
-        <v>21041</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5307,49 +5327,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>288</v>
+        <v>40</v>
       </c>
       <c r="D10" s="7">
-        <v>209741</v>
+        <v>34697</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="H10" s="7">
+        <v>24</v>
+      </c>
+      <c r="I10" s="7">
+        <v>17518</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>64</v>
+      </c>
+      <c r="N10" s="7">
+        <v>52215</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="H10" s="7">
-        <v>248</v>
-      </c>
-      <c r="I10" s="7">
-        <v>171298</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="M10" s="7">
-        <v>536</v>
-      </c>
-      <c r="N10" s="7">
-        <v>381039</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5358,49 +5378,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>40</v>
+        <v>288</v>
       </c>
       <c r="D11" s="7">
-        <v>34697</v>
+        <v>209741</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H11" s="7">
+        <v>248</v>
+      </c>
+      <c r="I11" s="7">
+        <v>171298</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>536</v>
+      </c>
+      <c r="N11" s="7">
+        <v>381039</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="H11" s="7">
-        <v>24</v>
-      </c>
-      <c r="I11" s="7">
-        <v>17518</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="M11" s="7">
-        <v>64</v>
-      </c>
-      <c r="N11" s="7">
-        <v>52215</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5462,49 +5482,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>184</v>
+        <v>37</v>
       </c>
       <c r="D13" s="7">
-        <v>141430</v>
+        <v>30227</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="H13" s="7">
+        <v>50</v>
+      </c>
+      <c r="I13" s="7">
+        <v>44321</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="M13" s="7">
+        <v>87</v>
+      </c>
+      <c r="N13" s="7">
+        <v>74548</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="H13" s="7">
-        <v>173</v>
-      </c>
-      <c r="I13" s="7">
-        <v>121960</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="M13" s="7">
-        <v>357</v>
-      </c>
-      <c r="N13" s="7">
-        <v>263390</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5513,49 +5533,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>37</v>
+        <v>184</v>
       </c>
       <c r="D14" s="7">
-        <v>30227</v>
+        <v>141430</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="H14" s="7">
+        <v>173</v>
+      </c>
+      <c r="I14" s="7">
+        <v>121960</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="M14" s="7">
+        <v>357</v>
+      </c>
+      <c r="N14" s="7">
+        <v>263390</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="H14" s="7">
-        <v>50</v>
-      </c>
-      <c r="I14" s="7">
-        <v>44321</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="M14" s="7">
-        <v>87</v>
-      </c>
-      <c r="N14" s="7">
-        <v>74548</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5617,49 +5637,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>208</v>
+        <v>25</v>
       </c>
       <c r="D16" s="7">
-        <v>153231</v>
+        <v>18714</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="H16" s="7">
+        <v>27</v>
+      </c>
+      <c r="I16" s="7">
+        <v>20427</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="H16" s="7">
-        <v>209</v>
-      </c>
-      <c r="I16" s="7">
-        <v>149620</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>398</v>
-      </c>
       <c r="M16" s="7">
-        <v>417</v>
+        <v>52</v>
       </c>
       <c r="N16" s="7">
-        <v>302851</v>
+        <v>39141</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5668,49 +5688,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>25</v>
+        <v>208</v>
       </c>
       <c r="D17" s="7">
-        <v>18714</v>
+        <v>153231</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="H17" s="7">
+        <v>209</v>
+      </c>
+      <c r="I17" s="7">
+        <v>149620</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>417</v>
+      </c>
+      <c r="N17" s="7">
+        <v>302851</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="H17" s="7">
-        <v>27</v>
-      </c>
-      <c r="I17" s="7">
-        <v>20427</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="M17" s="7">
-        <v>52</v>
-      </c>
-      <c r="N17" s="7">
-        <v>39141</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5772,49 +5792,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>837</v>
+        <v>109</v>
       </c>
       <c r="D19" s="7">
-        <v>617263</v>
+        <v>94600</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="7">
+        <v>120</v>
+      </c>
+      <c r="I19" s="7">
+        <v>93824</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="M19" s="7">
+        <v>229</v>
+      </c>
+      <c r="N19" s="7">
+        <v>188424</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="H19" s="7">
-        <v>801</v>
-      </c>
-      <c r="I19" s="7">
-        <v>549756</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1638</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1167018</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5823,49 +5843,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>109</v>
+        <v>837</v>
       </c>
       <c r="D20" s="7">
-        <v>94600</v>
+        <v>617263</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="H20" s="7">
+        <v>801</v>
+      </c>
+      <c r="I20" s="7">
+        <v>549756</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="M20" s="7">
+        <v>1638</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1167018</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="H20" s="7">
-        <v>120</v>
-      </c>
-      <c r="I20" s="7">
-        <v>93824</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M20" s="7">
-        <v>229</v>
-      </c>
-      <c r="N20" s="7">
-        <v>188424</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5917,6 +5937,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP2003-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP2003-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84154926-C1D7-40A2-9833-115DFAB65836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0DF2A39-143A-4CA9-95EE-1803726541E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{533F215D-0D1D-422D-883D-677E944B82B1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{07FFC88A-6F97-4AD4-8E76-0FD540763474}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="418">
   <si>
     <t>Menores según si tienen dientes o muelas empastados en 2007 (Tasa respuesta: 94,72%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -80,25 +80,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>26,68%</t>
+    <t>17,68%</t>
   </si>
   <si>
     <t>22,91%</t>
   </si>
   <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
   </si>
   <si>
     <t>13,56%</t>
   </si>
   <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,7 +107,7 @@
     <t>95,68%</t>
   </si>
   <si>
-    <t>73,32%</t>
+    <t>82,32%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -116,1189 +116,1183 @@
     <t>77,09%</t>
   </si>
   <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
   </si>
   <si>
     <t>86,44%</t>
   </si>
   <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>16,52%</t>
   </si>
   <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
     <t>11,81%</t>
   </si>
   <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si tienen dientes o muelas empastados en 2012 (Tasa respuesta: 93,28%)</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>Menores según si tienen dientes o muelas empastados en 2016 (Tasa respuesta: 93,51%)</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
   </si>
   <si>
     <t>11,31%</t>
   </si>
   <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
   </si>
   <si>
     <t>13,24%</t>
   </si>
   <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
   </si>
   <si>
     <t>86,76%</t>
   </si>
   <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>Menores según si tienen dientes o muelas empastados en 2023 (Tasa respuesta: 97,24%)</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
   </si>
   <si>
     <t>16,38%</t>
   </si>
   <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
   </si>
   <si>
     <t>83,62%</t>
   </si>
   <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si tienen dientes o muelas empastados en 2012 (Tasa respuesta: 93,28%)</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>Menores según si tienen dientes o muelas empastados en 2015 (Tasa respuesta: 93,51%)</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>Menores según si tienen dientes o muelas empastados en 2023 (Tasa respuesta: 97,24%)</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
   </si>
   <si>
     <t>17,61%</t>
   </si>
   <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
   </si>
   <si>
     <t>82,39%</t>
   </si>
   <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
   </si>
   <si>
     <t>73,35%</t>
   </si>
   <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
   </si>
   <si>
     <t>77,94%</t>
   </si>
   <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
   </si>
   <si>
     <t>10,88%</t>
   </si>
   <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
   </si>
   <si>
     <t>12,01%</t>
   </si>
   <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
   </si>
   <si>
     <t>89,12%</t>
   </si>
   <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
   </si>
   <si>
     <t>87,99%</t>
   </si>
   <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
   </si>
   <si>
     <t>13,29%</t>
   </si>
   <si>
-    <t>10,85%</t>
+    <t>10,98%</t>
   </si>
   <si>
     <t>14,58%</t>
   </si>
   <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
   </si>
   <si>
     <t>86,71%</t>
   </si>
   <si>
-    <t>89,15%</t>
+    <t>89,02%</t>
   </si>
   <si>
     <t>85,42%</t>
   </si>
   <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
   </si>
 </sst>
 </file>
@@ -1710,7 +1704,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB21781A-13A2-4E71-BE5C-ABEA435CA0F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76BAA97-9ECB-4787-9FC4-A044B55C0F57}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2484,13 +2478,13 @@
         <v>46841</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2505,13 +2499,13 @@
         <v>173120</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>232</v>
@@ -2520,13 +2514,13 @@
         <v>176696</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>488</v>
@@ -2535,13 +2529,13 @@
         <v>349816</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2609,13 +2603,13 @@
         <v>97535</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>169</v>
@@ -2624,13 +2618,13 @@
         <v>113305</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>314</v>
@@ -2639,13 +2633,13 @@
         <v>210840</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2660,13 +2654,13 @@
         <v>587355</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>794</v>
@@ -2675,13 +2669,13 @@
         <v>531735</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>1679</v>
@@ -2690,13 +2684,13 @@
         <v>1119090</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2752,7 +2746,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2773,7 +2767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64DDE1C0-28C9-425F-948C-2A27D7D39ED7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A6D78F3-0E79-4BB9-8C0A-17B297A308BF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2790,7 +2784,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2900,10 +2894,10 @@
         <v>17</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -2912,13 +2906,13 @@
         <v>2555</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -2927,13 +2921,13 @@
         <v>5769</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2951,10 +2945,10 @@
         <v>27</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
@@ -2963,13 +2957,13 @@
         <v>18242</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M5" s="7">
         <v>43</v>
@@ -2978,13 +2972,13 @@
         <v>38730</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3052,13 +3046,13 @@
         <v>21733</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -3067,13 +3061,13 @@
         <v>18809</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M7" s="7">
         <v>57</v>
@@ -3082,13 +3076,13 @@
         <v>40542</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,13 +3097,13 @@
         <v>96692</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H8" s="7">
         <v>131</v>
@@ -3118,13 +3112,13 @@
         <v>93562</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M8" s="7">
         <v>268</v>
@@ -3133,13 +3127,13 @@
         <v>190254</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3207,13 +3201,13 @@
         <v>29790</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H10" s="7">
         <v>58</v>
@@ -3222,13 +3216,13 @@
         <v>38399</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M10" s="7">
         <v>103</v>
@@ -3237,13 +3231,13 @@
         <v>68189</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3258,13 +3252,13 @@
         <v>182963</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H11" s="7">
         <v>238</v>
@@ -3273,13 +3267,13 @@
         <v>153120</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M11" s="7">
         <v>501</v>
@@ -3288,13 +3282,13 @@
         <v>336083</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3362,13 +3356,13 @@
         <v>20624</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H13" s="7">
         <v>32</v>
@@ -3377,13 +3371,13 @@
         <v>20635</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M13" s="7">
         <v>64</v>
@@ -3392,13 +3386,13 @@
         <v>41260</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3413,13 +3407,13 @@
         <v>131669</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H14" s="7">
         <v>193</v>
@@ -3428,13 +3422,13 @@
         <v>124023</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M14" s="7">
         <v>397</v>
@@ -3443,13 +3437,13 @@
         <v>255691</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3517,13 +3511,13 @@
         <v>17437</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>194</v>
+        <v>127</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H16" s="7">
         <v>39</v>
@@ -3532,13 +3526,13 @@
         <v>30832</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M16" s="7">
         <v>63</v>
@@ -3547,13 +3541,13 @@
         <v>48269</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,13 +3562,13 @@
         <v>178829</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>204</v>
+        <v>136</v>
       </c>
       <c r="H17" s="7">
         <v>213</v>
@@ -3815,7 +3809,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3836,7 +3830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27224870-7097-4F63-8CFA-A183F9FBEB14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A154397-8AEA-4868-B164-9F25EC0FA8E8}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4270,13 +4264,13 @@
         <v>30912</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
@@ -4285,13 +4279,13 @@
         <v>26707</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M10" s="7">
         <v>85</v>
@@ -4300,10 +4294,10 @@
         <v>57619</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>270</v>
@@ -4321,13 +4315,13 @@
         <v>179765</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H11" s="7">
         <v>269</v>
@@ -4336,13 +4330,13 @@
         <v>166529</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M11" s="7">
         <v>536</v>
@@ -4351,13 +4345,13 @@
         <v>346293</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4425,13 +4419,13 @@
         <v>21243</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>39</v>
+        <v>279</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H13" s="7">
         <v>27</v>
@@ -4440,13 +4434,13 @@
         <v>16937</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M13" s="7">
         <v>57</v>
@@ -4455,13 +4449,13 @@
         <v>38181</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>15</v>
+        <v>286</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4476,13 +4470,13 @@
         <v>139184</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>49</v>
+        <v>288</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H14" s="7">
         <v>217</v>
@@ -4491,13 +4485,13 @@
         <v>131230</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="M14" s="7">
         <v>425</v>
@@ -4506,13 +4500,13 @@
         <v>270413</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>26</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4580,13 +4574,13 @@
         <v>25494</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="H16" s="7">
         <v>41</v>
@@ -4595,13 +4589,13 @@
         <v>30781</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="M16" s="7">
         <v>75</v>
@@ -4610,13 +4604,13 @@
         <v>56274</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4631,13 +4625,13 @@
         <v>165187</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="H17" s="7">
         <v>220</v>
@@ -4646,13 +4640,13 @@
         <v>161702</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="M17" s="7">
         <v>454</v>
@@ -4661,13 +4655,13 @@
         <v>326889</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4735,13 +4729,13 @@
         <v>90901</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>311</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="H19" s="7">
         <v>128</v>
@@ -4750,13 +4744,13 @@
         <v>88955</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>316</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>254</v>
@@ -4765,13 +4759,13 @@
         <v>179856</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>218</v>
+        <v>319</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4786,13 +4780,13 @@
         <v>609994</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>319</v>
+        <v>49</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H20" s="7">
         <v>860</v>
@@ -4801,13 +4795,13 @@
         <v>569599</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>323</v>
+        <v>122</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M20" s="7">
         <v>1734</v>
@@ -4816,13 +4810,13 @@
         <v>1179593</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>228</v>
+        <v>326</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4878,7 +4872,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4899,7 +4893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD22D4A8-95DB-4067-BDD7-7CFE832F64BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EC5B379-3D5F-4DCD-B6C3-F7450918CDA0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4916,7 +4910,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5029,7 +5023,7 @@
         <v>230</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>158</v>
+        <v>330</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -5038,13 +5032,13 @@
         <v>1479</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -5053,13 +5047,13 @@
         <v>1479</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5077,7 +5071,7 @@
         <v>23</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>168</v>
+        <v>335</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -5089,10 +5083,10 @@
         <v>15308</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -5104,10 +5098,10 @@
         <v>26738</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>23</v>
@@ -5178,13 +5172,13 @@
         <v>10962</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>336</v>
+        <v>201</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -5193,13 +5187,13 @@
         <v>10079</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="M7" s="7">
         <v>24</v>
@@ -5208,13 +5202,13 @@
         <v>21041</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5229,13 +5223,13 @@
         <v>101430</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>345</v>
+        <v>210</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="H8" s="7">
         <v>145</v>
@@ -5244,13 +5238,13 @@
         <v>91570</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="M8" s="7">
         <v>285</v>
@@ -5259,13 +5253,13 @@
         <v>193000</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5333,13 +5327,13 @@
         <v>34697</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="H10" s="7">
         <v>24</v>
@@ -5348,13 +5342,13 @@
         <v>17518</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="M10" s="7">
         <v>64</v>
@@ -5363,13 +5357,13 @@
         <v>52215</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5384,13 +5378,13 @@
         <v>209741</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="H11" s="7">
         <v>248</v>
@@ -5399,13 +5393,13 @@
         <v>171298</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M11" s="7">
         <v>536</v>
@@ -5414,13 +5408,13 @@
         <v>381039</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5488,13 +5482,13 @@
         <v>30227</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>331</v>
+        <v>374</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="H13" s="7">
         <v>50</v>
@@ -5503,13 +5497,13 @@
         <v>44321</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="M13" s="7">
         <v>87</v>
@@ -5518,13 +5512,13 @@
         <v>74548</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5539,13 +5533,13 @@
         <v>141430</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>335</v>
+        <v>383</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="H14" s="7">
         <v>173</v>
@@ -5554,13 +5548,13 @@
         <v>121960</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="M14" s="7">
         <v>357</v>
@@ -5569,13 +5563,13 @@
         <v>263390</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5643,13 +5637,13 @@
         <v>18714</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="H16" s="7">
         <v>27</v>
@@ -5658,13 +5652,13 @@
         <v>20427</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>393</v>
+        <v>247</v>
       </c>
       <c r="M16" s="7">
         <v>52</v>
@@ -5676,10 +5670,10 @@
         <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5694,13 +5688,13 @@
         <v>153231</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="H17" s="7">
         <v>209</v>
@@ -5709,13 +5703,13 @@
         <v>149620</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>400</v>
+        <v>255</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M17" s="7">
         <v>417</v>
@@ -5724,13 +5718,13 @@
         <v>302851</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5798,13 +5792,13 @@
         <v>94600</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>38</v>
+        <v>214</v>
       </c>
       <c r="H19" s="7">
         <v>120</v>
@@ -5813,13 +5807,13 @@
         <v>93824</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>407</v>
+        <v>198</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M19" s="7">
         <v>229</v>
@@ -5828,7 +5822,7 @@
         <v>188424</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>409</v>
+        <v>166</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>410</v>
@@ -5852,7 +5846,7 @@
         <v>412</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>47</v>
+        <v>223</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>413</v>
@@ -5870,7 +5864,7 @@
         <v>415</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>416</v>
+        <v>207</v>
       </c>
       <c r="M20" s="7">
         <v>1638</v>
@@ -5879,13 +5873,13 @@
         <v>1167018</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5941,7 +5935,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP2003-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP2003-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0DF2A39-143A-4CA9-95EE-1803726541E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BE3B403-11FC-42F7-85B0-80D155E3F0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{07FFC88A-6F97-4AD4-8E76-0FD540763474}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{950D8BCE-1868-4B0F-BA02-1957EADC095E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="376">
   <si>
     <t>Menores según si tienen dientes o muelas empastados en 2007 (Tasa respuesta: 94,72%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,1231 +68,1105 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si tienen dientes o muelas empastados en 2012 (Tasa respuesta: 93,28%)</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
   </si>
   <si>
     <t>11,29%</t>
   </si>
   <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>Menores según si tienen dientes o muelas empastados en 2016 (Tasa respuesta: 93,51%)</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
   </si>
   <si>
     <t>12,97%</t>
   </si>
   <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
   </si>
   <si>
     <t>87,03%</t>
   </si>
   <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>15,36%</t>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>Menores según si tienen dientes o muelas empastados en 2023 (Tasa respuesta: 97,24%)</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
   </si>
   <si>
     <t>11,62%</t>
   </si>
   <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
   </si>
   <si>
     <t>88,38%</t>
   </si>
   <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si tienen dientes o muelas empastados en 2012 (Tasa respuesta: 93,28%)</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
   </si>
   <si>
     <t>21,11%</t>
   </si>
   <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
   </si>
   <si>
     <t>78,89%</t>
   </si>
   <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>Menores según si tienen dientes o muelas empastados en 2016 (Tasa respuesta: 93,51%)</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>Menores según si tienen dientes o muelas empastados en 2023 (Tasa respuesta: 97,24%)</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
   </si>
 </sst>
 </file>
@@ -1704,8 +1578,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76BAA97-9ECB-4787-9FC4-A044B55C0F57}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435691F3-2AAE-42B4-9D2D-8BC0F4354955}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1822,10 +1696,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D4" s="7">
-        <v>961</v>
+        <v>23058</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1837,10 +1711,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="I4" s="7">
-        <v>5042</v>
+        <v>20989</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1852,10 +1726,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="N4" s="7">
-        <v>6003</v>
+        <v>44047</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1873,10 +1747,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>28</v>
+        <v>155</v>
       </c>
       <c r="D5" s="7">
-        <v>21287</v>
+        <v>105948</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1888,10 +1762,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>22</v>
+        <v>182</v>
       </c>
       <c r="I5" s="7">
-        <v>16968</v>
+        <v>122518</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1903,10 +1777,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>50</v>
+        <v>337</v>
       </c>
       <c r="N5" s="7">
-        <v>38255</v>
+        <v>228466</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1924,10 +1798,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="D6" s="7">
-        <v>22248</v>
+        <v>129006</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1939,10 +1813,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>28</v>
+        <v>213</v>
       </c>
       <c r="I6" s="7">
-        <v>22010</v>
+        <v>143507</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1954,10 +1828,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>57</v>
+        <v>401</v>
       </c>
       <c r="N6" s="7">
-        <v>44258</v>
+        <v>272513</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1977,10 +1851,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="D7" s="7">
-        <v>20028</v>
+        <v>40000</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1992,10 +1866,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="I7" s="7">
-        <v>18017</v>
+        <v>31474</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2007,10 +1881,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="N7" s="7">
-        <v>38044</v>
+        <v>71474</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2028,10 +1902,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>154</v>
+        <v>234</v>
       </c>
       <c r="D8" s="7">
-        <v>101231</v>
+        <v>145784</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2043,10 +1917,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>133</v>
+        <v>264</v>
       </c>
       <c r="I8" s="7">
-        <v>88979</v>
+        <v>173428</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2058,10 +1932,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>287</v>
+        <v>498</v>
       </c>
       <c r="N8" s="7">
-        <v>190212</v>
+        <v>319212</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2079,10 +1953,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>184</v>
+        <v>297</v>
       </c>
       <c r="D9" s="7">
-        <v>121259</v>
+        <v>185784</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2094,10 +1968,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>160</v>
+        <v>311</v>
       </c>
       <c r="I9" s="7">
-        <v>106996</v>
+        <v>204902</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2109,10 +1983,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>344</v>
+        <v>608</v>
       </c>
       <c r="N9" s="7">
-        <v>228256</v>
+        <v>390686</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2132,10 +2006,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D10" s="7">
-        <v>31474</v>
+        <v>27425</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2147,10 +2021,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="I10" s="7">
-        <v>40000</v>
+        <v>21053</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2162,10 +2036,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="N10" s="7">
-        <v>71474</v>
+        <v>48478</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2183,10 +2057,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>264</v>
+        <v>173</v>
       </c>
       <c r="D11" s="7">
-        <v>173428</v>
+        <v>103307</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2198,10 +2072,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>234</v>
+        <v>183</v>
       </c>
       <c r="I11" s="7">
-        <v>145784</v>
+        <v>118289</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2213,10 +2087,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>498</v>
+        <v>356</v>
       </c>
       <c r="N11" s="7">
-        <v>319212</v>
+        <v>221596</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2234,10 +2108,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>311</v>
+        <v>217</v>
       </c>
       <c r="D12" s="7">
-        <v>204902</v>
+        <v>130732</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2249,10 +2123,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>297</v>
+        <v>216</v>
       </c>
       <c r="I12" s="7">
-        <v>185784</v>
+        <v>139342</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2264,10 +2138,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>608</v>
+        <v>433</v>
       </c>
       <c r="N12" s="7">
-        <v>390686</v>
+        <v>270074</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2287,10 +2161,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D13" s="7">
-        <v>21053</v>
+        <v>22822</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2302,10 +2176,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="I13" s="7">
-        <v>27425</v>
+        <v>24019</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2317,10 +2191,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="N13" s="7">
-        <v>48478</v>
+        <v>46841</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2338,10 +2212,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>183</v>
+        <v>232</v>
       </c>
       <c r="D14" s="7">
-        <v>118289</v>
+        <v>176696</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2353,10 +2227,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>173</v>
+        <v>256</v>
       </c>
       <c r="I14" s="7">
-        <v>103307</v>
+        <v>173120</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2368,10 +2242,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>356</v>
+        <v>488</v>
       </c>
       <c r="N14" s="7">
-        <v>221596</v>
+        <v>349816</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2389,10 +2263,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>216</v>
+        <v>261</v>
       </c>
       <c r="D15" s="7">
-        <v>139342</v>
+        <v>199518</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2404,10 +2278,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>217</v>
+        <v>290</v>
       </c>
       <c r="I15" s="7">
-        <v>130732</v>
+        <v>197139</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2419,10 +2293,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>433</v>
+        <v>551</v>
       </c>
       <c r="N15" s="7">
-        <v>270074</v>
+        <v>396657</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2436,55 +2310,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>34</v>
+        <v>169</v>
       </c>
       <c r="D16" s="7">
-        <v>24019</v>
+        <v>113305</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>145</v>
+      </c>
+      <c r="I16" s="7">
+        <v>97535</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>29</v>
-      </c>
-      <c r="I16" s="7">
-        <v>22822</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>314</v>
+      </c>
+      <c r="N16" s="7">
+        <v>210840</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>63</v>
-      </c>
-      <c r="N16" s="7">
-        <v>46841</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2493,49 +2367,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>256</v>
+        <v>794</v>
       </c>
       <c r="D17" s="7">
-        <v>173120</v>
+        <v>531735</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>885</v>
+      </c>
+      <c r="I17" s="7">
+        <v>587355</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>232</v>
-      </c>
-      <c r="I17" s="7">
-        <v>176696</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>1679</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1119090</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="M17" s="7">
-        <v>488</v>
-      </c>
-      <c r="N17" s="7">
-        <v>349816</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,10 +2418,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>290</v>
+        <v>963</v>
       </c>
       <c r="D18" s="7">
-        <v>197139</v>
+        <v>645040</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2559,10 +2433,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>261</v>
+        <v>1030</v>
       </c>
       <c r="I18" s="7">
-        <v>199518</v>
+        <v>684890</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2574,10 +2448,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>551</v>
+        <v>1993</v>
       </c>
       <c r="N18" s="7">
-        <v>396657</v>
+        <v>1329930</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2590,171 +2464,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>145</v>
-      </c>
-      <c r="D19" s="7">
-        <v>97535</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>169</v>
-      </c>
-      <c r="I19" s="7">
-        <v>113305</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>314</v>
-      </c>
-      <c r="N19" s="7">
-        <v>210840</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>885</v>
-      </c>
-      <c r="D20" s="7">
-        <v>587355</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>794</v>
-      </c>
-      <c r="I20" s="7">
-        <v>531735</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1679</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1119090</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1030</v>
-      </c>
-      <c r="D21" s="7">
-        <v>684890</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>963</v>
-      </c>
-      <c r="I21" s="7">
-        <v>645040</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1993</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1329930</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2767,8 +2485,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A6D78F3-0E79-4BB9-8C0A-17B297A308BF}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7DC5D38-6023-42AD-A85B-61C9B0BEA1C6}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2784,7 +2502,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2885,49 +2603,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D4" s="7">
-        <v>3213</v>
+        <v>21365</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="I4" s="7">
-        <v>2555</v>
+        <v>24946</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="N4" s="7">
-        <v>5769</v>
+        <v>46311</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2936,49 +2654,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="D5" s="7">
-        <v>20489</v>
+        <v>111803</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="H5" s="7">
-        <v>21</v>
+        <v>159</v>
       </c>
       <c r="I5" s="7">
-        <v>18242</v>
+        <v>117181</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
-        <v>43</v>
+        <v>311</v>
       </c>
       <c r="N5" s="7">
-        <v>38730</v>
+        <v>228984</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2987,10 +2705,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>26</v>
+        <v>181</v>
       </c>
       <c r="D6" s="7">
-        <v>23702</v>
+        <v>133168</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3002,10 +2720,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>24</v>
+        <v>194</v>
       </c>
       <c r="I6" s="7">
-        <v>20797</v>
+        <v>142127</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3017,10 +2735,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>50</v>
+        <v>375</v>
       </c>
       <c r="N6" s="7">
-        <v>44499</v>
+        <v>275295</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3040,49 +2758,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="D7" s="7">
-        <v>21733</v>
+        <v>38399</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="H7" s="7">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="I7" s="7">
-        <v>18809</v>
+        <v>29790</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="M7" s="7">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="N7" s="7">
-        <v>40542</v>
+        <v>68189</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,49 +2809,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>238</v>
+      </c>
+      <c r="D8" s="7">
+        <v>153120</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H8" s="7">
+        <v>263</v>
+      </c>
+      <c r="I8" s="7">
+        <v>182963</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D8" s="7">
-        <v>96692</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H8" s="7">
-        <v>131</v>
-      </c>
-      <c r="I8" s="7">
-        <v>93562</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>155</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="M8" s="7">
-        <v>268</v>
+        <v>501</v>
       </c>
       <c r="N8" s="7">
-        <v>190254</v>
+        <v>336083</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,10 +2860,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>168</v>
+        <v>296</v>
       </c>
       <c r="D9" s="7">
-        <v>118425</v>
+        <v>191519</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3157,10 +2875,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>157</v>
+        <v>308</v>
       </c>
       <c r="I9" s="7">
-        <v>112371</v>
+        <v>212753</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3172,10 +2890,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>325</v>
+        <v>604</v>
       </c>
       <c r="N9" s="7">
-        <v>230796</v>
+        <v>404272</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3195,49 +2913,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D10" s="7">
-        <v>29790</v>
+        <v>20635</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="H10" s="7">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="I10" s="7">
-        <v>38399</v>
+        <v>20624</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="M10" s="7">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="N10" s="7">
-        <v>68189</v>
+        <v>41260</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3246,49 +2964,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>263</v>
+        <v>193</v>
       </c>
       <c r="D11" s="7">
-        <v>182963</v>
+        <v>124023</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="H11" s="7">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="I11" s="7">
-        <v>153120</v>
+        <v>131669</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="M11" s="7">
-        <v>501</v>
+        <v>397</v>
       </c>
       <c r="N11" s="7">
-        <v>336083</v>
+        <v>255691</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3297,10 +3015,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>308</v>
+        <v>225</v>
       </c>
       <c r="D12" s="7">
-        <v>212753</v>
+        <v>144658</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3312,10 +3030,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>296</v>
+        <v>236</v>
       </c>
       <c r="I12" s="7">
-        <v>191519</v>
+        <v>152293</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3327,10 +3045,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>604</v>
+        <v>461</v>
       </c>
       <c r="N12" s="7">
-        <v>404272</v>
+        <v>296951</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3350,49 +3068,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D13" s="7">
-        <v>20624</v>
+        <v>30832</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="H13" s="7">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I13" s="7">
-        <v>20635</v>
+        <v>17437</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="M13" s="7">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N13" s="7">
-        <v>41260</v>
+        <v>48269</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3401,49 +3119,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="D14" s="7">
-        <v>131669</v>
+        <v>162715</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="H14" s="7">
-        <v>193</v>
+        <v>242</v>
       </c>
       <c r="I14" s="7">
-        <v>124023</v>
+        <v>178829</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="M14" s="7">
-        <v>397</v>
+        <v>455</v>
       </c>
       <c r="N14" s="7">
-        <v>255691</v>
+        <v>341544</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3452,10 +3170,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="D15" s="7">
-        <v>152293</v>
+        <v>193547</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3467,10 +3185,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>225</v>
+        <v>266</v>
       </c>
       <c r="I15" s="7">
-        <v>144658</v>
+        <v>196266</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3482,10 +3200,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>461</v>
+        <v>518</v>
       </c>
       <c r="N15" s="7">
-        <v>296951</v>
+        <v>389813</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3499,55 +3217,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>24</v>
+        <v>158</v>
       </c>
       <c r="D16" s="7">
-        <v>17437</v>
+        <v>111231</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="H16" s="7">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="I16" s="7">
-        <v>30832</v>
+        <v>92797</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="M16" s="7">
-        <v>63</v>
+        <v>294</v>
       </c>
       <c r="N16" s="7">
-        <v>48269</v>
+        <v>204028</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3556,49 +3274,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>242</v>
+        <v>796</v>
       </c>
       <c r="D17" s="7">
-        <v>178829</v>
+        <v>551660</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>136</v>
+        <v>189</v>
       </c>
       <c r="H17" s="7">
-        <v>213</v>
+        <v>868</v>
       </c>
       <c r="I17" s="7">
-        <v>162715</v>
+        <v>610643</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="M17" s="7">
-        <v>455</v>
+        <v>1664</v>
       </c>
       <c r="N17" s="7">
-        <v>341544</v>
+        <v>1162303</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3607,10 +3325,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>266</v>
+        <v>954</v>
       </c>
       <c r="D18" s="7">
-        <v>196266</v>
+        <v>662891</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3622,10 +3340,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>252</v>
+        <v>1004</v>
       </c>
       <c r="I18" s="7">
-        <v>193547</v>
+        <v>703440</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3637,10 +3355,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>518</v>
+        <v>1958</v>
       </c>
       <c r="N18" s="7">
-        <v>389813</v>
+        <v>1366331</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3653,171 +3371,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>136</v>
-      </c>
-      <c r="D19" s="7">
-        <v>92797</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H19" s="7">
-        <v>158</v>
-      </c>
-      <c r="I19" s="7">
-        <v>111231</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="M19" s="7">
-        <v>294</v>
-      </c>
-      <c r="N19" s="7">
-        <v>204028</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>868</v>
-      </c>
-      <c r="D20" s="7">
-        <v>610643</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="H20" s="7">
-        <v>796</v>
-      </c>
-      <c r="I20" s="7">
-        <v>551660</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1664</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1162303</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1004</v>
-      </c>
-      <c r="D21" s="7">
-        <v>703440</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>954</v>
-      </c>
-      <c r="I21" s="7">
-        <v>662891</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1958</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1366331</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3830,8 +3392,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A154397-8AEA-4868-B164-9F25EC0FA8E8}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B1B383-C88E-49A1-9DA4-38517CF0BE31}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3847,7 +3409,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3948,49 +3510,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>14530</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>12</v>
+        <v>197</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="I4" s="7">
-        <v>4265</v>
+        <v>13252</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="M4" s="7">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="N4" s="7">
-        <v>4265</v>
+        <v>27782</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3999,49 +3561,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>27</v>
+        <v>154</v>
       </c>
       <c r="D5" s="7">
-        <v>22779</v>
+        <v>110139</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>23</v>
+        <v>206</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>30</v>
+        <v>208</v>
       </c>
       <c r="H5" s="7">
-        <v>19</v>
+        <v>165</v>
       </c>
       <c r="I5" s="7">
-        <v>17218</v>
+        <v>125858</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="M5" s="7">
-        <v>46</v>
+        <v>319</v>
       </c>
       <c r="N5" s="7">
-        <v>39997</v>
+        <v>235997</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,10 +3612,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>27</v>
+        <v>173</v>
       </c>
       <c r="D6" s="7">
-        <v>22779</v>
+        <v>124669</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4065,10 +3627,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>23</v>
+        <v>183</v>
       </c>
       <c r="I6" s="7">
-        <v>21483</v>
+        <v>139110</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4080,10 +3642,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>50</v>
+        <v>356</v>
       </c>
       <c r="N6" s="7">
-        <v>44262</v>
+        <v>263779</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4103,49 +3665,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D7" s="7">
-        <v>13252</v>
+        <v>26707</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>245</v>
+        <v>131</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="H7" s="7">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="I7" s="7">
-        <v>10266</v>
+        <v>30912</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="M7" s="7">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="N7" s="7">
-        <v>23517</v>
+        <v>57619</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4154,49 +3716,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>138</v>
+        <v>269</v>
       </c>
       <c r="D8" s="7">
-        <v>103079</v>
+        <v>166529</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>254</v>
+        <v>141</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="H8" s="7">
-        <v>135</v>
+        <v>267</v>
       </c>
       <c r="I8" s="7">
-        <v>92921</v>
+        <v>179765</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="M8" s="7">
-        <v>273</v>
+        <v>536</v>
       </c>
       <c r="N8" s="7">
-        <v>196000</v>
+        <v>346294</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,10 +3767,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>156</v>
+        <v>310</v>
       </c>
       <c r="D9" s="7">
-        <v>116331</v>
+        <v>193236</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4220,10 +3782,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>150</v>
+        <v>311</v>
       </c>
       <c r="I9" s="7">
-        <v>103187</v>
+        <v>210677</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4235,10 +3797,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>306</v>
+        <v>621</v>
       </c>
       <c r="N9" s="7">
-        <v>219517</v>
+        <v>403913</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4258,49 +3820,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D10" s="7">
-        <v>30912</v>
+        <v>16937</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="H10" s="7">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="I10" s="7">
-        <v>26707</v>
+        <v>21243</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="M10" s="7">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="N10" s="7">
-        <v>57619</v>
+        <v>38181</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4309,49 +3871,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>267</v>
+        <v>217</v>
       </c>
       <c r="D11" s="7">
-        <v>179765</v>
+        <v>131230</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>87</v>
+        <v>240</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="H11" s="7">
-        <v>269</v>
+        <v>208</v>
       </c>
       <c r="I11" s="7">
-        <v>166529</v>
+        <v>139184</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="M11" s="7">
-        <v>536</v>
+        <v>425</v>
       </c>
       <c r="N11" s="7">
-        <v>346293</v>
+        <v>270413</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4360,10 +3922,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>311</v>
+        <v>244</v>
       </c>
       <c r="D12" s="7">
-        <v>210677</v>
+        <v>148167</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4375,10 +3937,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>310</v>
+        <v>238</v>
       </c>
       <c r="I12" s="7">
-        <v>193236</v>
+        <v>160427</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4390,10 +3952,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>621</v>
+        <v>482</v>
       </c>
       <c r="N12" s="7">
-        <v>403912</v>
+        <v>308594</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4413,49 +3975,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D13" s="7">
-        <v>21243</v>
+        <v>30781</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="H13" s="7">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I13" s="7">
-        <v>16937</v>
+        <v>25494</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="M13" s="7">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="N13" s="7">
-        <v>38181</v>
+        <v>56274</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4464,49 +4026,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="D14" s="7">
-        <v>139184</v>
+        <v>161702</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="H14" s="7">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="I14" s="7">
-        <v>131230</v>
+        <v>165187</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>292</v>
+        <v>262</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="M14" s="7">
-        <v>425</v>
+        <v>454</v>
       </c>
       <c r="N14" s="7">
-        <v>270413</v>
+        <v>326889</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,10 +4077,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="D15" s="7">
-        <v>160427</v>
+        <v>192483</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4530,10 +4092,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="I15" s="7">
-        <v>148167</v>
+        <v>190681</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4545,10 +4107,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>482</v>
+        <v>529</v>
       </c>
       <c r="N15" s="7">
-        <v>308594</v>
+        <v>383163</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4562,55 +4124,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="D16" s="7">
-        <v>25494</v>
+        <v>88955</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="H16" s="7">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="I16" s="7">
-        <v>30781</v>
+        <v>90901</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="M16" s="7">
-        <v>75</v>
+        <v>254</v>
       </c>
       <c r="N16" s="7">
-        <v>56274</v>
+        <v>179856</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4619,49 +4181,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>234</v>
+        <v>860</v>
       </c>
       <c r="D17" s="7">
-        <v>165187</v>
+        <v>569600</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>306</v>
+        <v>276</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="H17" s="7">
-        <v>220</v>
+        <v>874</v>
       </c>
       <c r="I17" s="7">
-        <v>161702</v>
+        <v>609994</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="M17" s="7">
-        <v>454</v>
+        <v>1734</v>
       </c>
       <c r="N17" s="7">
-        <v>326889</v>
+        <v>1179593</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>313</v>
+        <v>283</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4670,10 +4232,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>268</v>
+        <v>988</v>
       </c>
       <c r="D18" s="7">
-        <v>190681</v>
+        <v>658555</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4685,10 +4247,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>261</v>
+        <v>1000</v>
       </c>
       <c r="I18" s="7">
-        <v>192483</v>
+        <v>700895</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4700,10 +4262,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>529</v>
+        <v>1988</v>
       </c>
       <c r="N18" s="7">
-        <v>383163</v>
+        <v>1359449</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4716,171 +4278,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>126</v>
-      </c>
-      <c r="D19" s="7">
-        <v>90901</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="H19" s="7">
-        <v>128</v>
-      </c>
-      <c r="I19" s="7">
-        <v>88955</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="M19" s="7">
-        <v>254</v>
-      </c>
-      <c r="N19" s="7">
-        <v>179856</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>874</v>
-      </c>
-      <c r="D20" s="7">
-        <v>609994</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="H20" s="7">
-        <v>860</v>
-      </c>
-      <c r="I20" s="7">
-        <v>569599</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1734</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1179593</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1000</v>
-      </c>
-      <c r="D21" s="7">
-        <v>700895</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>988</v>
-      </c>
-      <c r="I21" s="7">
-        <v>658554</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1988</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1359449</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4893,8 +4299,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EC5B379-3D5F-4DCD-B6C3-F7450918CDA0}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2037D7E-AC8E-4DA2-80EE-D639D1D43311}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4910,7 +4316,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>329</v>
+        <v>285</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5011,49 +4417,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>11817</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>12</v>
+        <v>286</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>230</v>
+        <v>287</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>330</v>
+        <v>288</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>1479</v>
+        <v>15885</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>331</v>
+        <v>289</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>332</v>
+        <v>291</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="N4" s="7">
-        <v>1479</v>
+        <v>27702</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>333</v>
+        <v>292</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>293</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>334</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5062,49 +4468,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="D5" s="7">
-        <v>11430</v>
+        <v>103253</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>23</v>
+        <v>295</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>335</v>
+        <v>296</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>30</v>
+        <v>297</v>
       </c>
       <c r="H5" s="7">
-        <v>26</v>
+        <v>157</v>
       </c>
       <c r="I5" s="7">
-        <v>15308</v>
+        <v>120872</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>337</v>
+        <v>299</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>300</v>
       </c>
       <c r="M5" s="7">
-        <v>43</v>
+        <v>328</v>
       </c>
       <c r="N5" s="7">
-        <v>26738</v>
+        <v>224125</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>23</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5113,10 +4519,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>17</v>
+        <v>190</v>
       </c>
       <c r="D6" s="7">
-        <v>11430</v>
+        <v>115070</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5128,10 +4534,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>28</v>
+        <v>164</v>
       </c>
       <c r="I6" s="7">
-        <v>16787</v>
+        <v>136757</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5143,10 +4549,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>45</v>
+        <v>354</v>
       </c>
       <c r="N6" s="7">
-        <v>28217</v>
+        <v>251827</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5166,49 +4572,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D7" s="7">
-        <v>10962</v>
+        <v>17615</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>201</v>
+        <v>304</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>340</v>
+        <v>305</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>341</v>
+        <v>306</v>
       </c>
       <c r="H7" s="7">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="I7" s="7">
-        <v>10079</v>
+        <v>37164</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>342</v>
+        <v>307</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>343</v>
+        <v>308</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>344</v>
+        <v>309</v>
       </c>
       <c r="M7" s="7">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="N7" s="7">
-        <v>21041</v>
+        <v>54779</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>345</v>
+        <v>310</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>347</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,49 +4623,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>140</v>
+        <v>248</v>
       </c>
       <c r="D8" s="7">
-        <v>101430</v>
+        <v>169283</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>210</v>
+        <v>313</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>348</v>
+        <v>314</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>349</v>
+        <v>315</v>
       </c>
       <c r="H8" s="7">
-        <v>145</v>
+        <v>288</v>
       </c>
       <c r="I8" s="7">
-        <v>91570</v>
+        <v>211978</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>350</v>
+        <v>316</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="M8" s="7">
-        <v>285</v>
+        <v>536</v>
       </c>
       <c r="N8" s="7">
-        <v>193000</v>
+        <v>381261</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>354</v>
+        <v>320</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>355</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5268,10 +4674,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>147</v>
+        <v>272</v>
       </c>
       <c r="D9" s="7">
-        <v>112392</v>
+        <v>186898</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5283,10 +4689,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>162</v>
+        <v>328</v>
       </c>
       <c r="I9" s="7">
-        <v>101649</v>
+        <v>249142</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5298,10 +4704,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>309</v>
+        <v>600</v>
       </c>
       <c r="N9" s="7">
-        <v>214041</v>
+        <v>436040</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5321,49 +4727,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D10" s="7">
-        <v>34697</v>
+        <v>63290</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>356</v>
+        <v>322</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>357</v>
+        <v>323</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>358</v>
+        <v>324</v>
       </c>
       <c r="H10" s="7">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I10" s="7">
-        <v>17518</v>
+        <v>32596</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>359</v>
+        <v>325</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>360</v>
+        <v>326</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>361</v>
+        <v>327</v>
       </c>
       <c r="M10" s="7">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="N10" s="7">
-        <v>52215</v>
+        <v>95885</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>362</v>
+        <v>328</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>363</v>
+        <v>329</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>364</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5372,49 +4778,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>288</v>
+        <v>173</v>
       </c>
       <c r="D11" s="7">
-        <v>209741</v>
+        <v>124697</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>365</v>
+        <v>331</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>366</v>
+        <v>332</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>367</v>
+        <v>333</v>
       </c>
       <c r="H11" s="7">
-        <v>248</v>
+        <v>184</v>
       </c>
       <c r="I11" s="7">
-        <v>171298</v>
+        <v>151107</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>368</v>
+        <v>334</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>369</v>
+        <v>335</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="M11" s="7">
-        <v>536</v>
+        <v>357</v>
       </c>
       <c r="N11" s="7">
-        <v>381039</v>
+        <v>275805</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>371</v>
+        <v>337</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>372</v>
+        <v>338</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5423,10 +4829,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>328</v>
+        <v>223</v>
       </c>
       <c r="D12" s="7">
-        <v>244438</v>
+        <v>187987</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5438,10 +4844,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>272</v>
+        <v>221</v>
       </c>
       <c r="I12" s="7">
-        <v>188816</v>
+        <v>183703</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5453,10 +4859,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>600</v>
+        <v>444</v>
       </c>
       <c r="N12" s="7">
-        <v>433254</v>
+        <v>371690</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5476,49 +4882,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D13" s="7">
-        <v>30227</v>
+        <v>20326</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>374</v>
+        <v>340</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>375</v>
+        <v>341</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>376</v>
+        <v>342</v>
       </c>
       <c r="H13" s="7">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="I13" s="7">
-        <v>44321</v>
+        <v>19720</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>377</v>
+        <v>343</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>378</v>
+        <v>344</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>379</v>
+        <v>345</v>
       </c>
       <c r="M13" s="7">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="N13" s="7">
-        <v>74548</v>
+        <v>40046</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>380</v>
+        <v>346</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>381</v>
+        <v>347</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>382</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5527,49 +4933,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="D14" s="7">
-        <v>141430</v>
+        <v>145790</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>383</v>
+        <v>349</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>384</v>
+        <v>350</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>385</v>
+        <v>351</v>
       </c>
       <c r="H14" s="7">
-        <v>173</v>
+        <v>208</v>
       </c>
       <c r="I14" s="7">
-        <v>121960</v>
+        <v>158143</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>386</v>
+        <v>352</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>387</v>
+        <v>353</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>388</v>
+        <v>354</v>
       </c>
       <c r="M14" s="7">
+        <v>417</v>
+      </c>
+      <c r="N14" s="7">
+        <v>303933</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="N14" s="7">
-        <v>263390</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5578,10 +4984,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="D15" s="7">
-        <v>171657</v>
+        <v>166116</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5593,10 +4999,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="I15" s="7">
-        <v>166281</v>
+        <v>177863</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5608,10 +5014,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>444</v>
+        <v>469</v>
       </c>
       <c r="N15" s="7">
-        <v>337938</v>
+        <v>343979</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5625,55 +5031,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="D16" s="7">
-        <v>18714</v>
+        <v>113048</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>392</v>
+        <v>358</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>393</v>
+        <v>359</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>394</v>
+        <v>360</v>
       </c>
       <c r="H16" s="7">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="I16" s="7">
-        <v>20427</v>
+        <v>105364</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>395</v>
+        <v>361</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>396</v>
+        <v>362</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>247</v>
+        <v>363</v>
       </c>
       <c r="M16" s="7">
-        <v>52</v>
+        <v>229</v>
       </c>
       <c r="N16" s="7">
-        <v>39141</v>
+        <v>218412</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>364</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>397</v>
+        <v>365</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>398</v>
+        <v>366</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5682,49 +5088,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>208</v>
+        <v>801</v>
       </c>
       <c r="D17" s="7">
-        <v>153231</v>
+        <v>543023</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>399</v>
+        <v>367</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>400</v>
+        <v>368</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>401</v>
+        <v>369</v>
       </c>
       <c r="H17" s="7">
-        <v>209</v>
+        <v>837</v>
       </c>
       <c r="I17" s="7">
-        <v>149620</v>
+        <v>642101</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>402</v>
+        <v>370</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>255</v>
+        <v>371</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>403</v>
+        <v>372</v>
       </c>
       <c r="M17" s="7">
-        <v>417</v>
+        <v>1638</v>
       </c>
       <c r="N17" s="7">
-        <v>302851</v>
+        <v>1185124</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>373</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>404</v>
+        <v>374</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>405</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5733,10 +5139,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>233</v>
+        <v>921</v>
       </c>
       <c r="D18" s="7">
-        <v>171945</v>
+        <v>656071</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5748,10 +5154,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>236</v>
+        <v>946</v>
       </c>
       <c r="I18" s="7">
-        <v>170047</v>
+        <v>747465</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5763,10 +5169,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>469</v>
+        <v>1867</v>
       </c>
       <c r="N18" s="7">
-        <v>341992</v>
+        <v>1403536</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5779,171 +5185,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>109</v>
-      </c>
-      <c r="D19" s="7">
-        <v>94600</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H19" s="7">
-        <v>120</v>
-      </c>
-      <c r="I19" s="7">
-        <v>93824</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="M19" s="7">
-        <v>229</v>
-      </c>
-      <c r="N19" s="7">
-        <v>188424</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>837</v>
-      </c>
-      <c r="D20" s="7">
-        <v>617263</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="H20" s="7">
-        <v>801</v>
-      </c>
-      <c r="I20" s="7">
-        <v>549756</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1638</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1167018</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>946</v>
-      </c>
-      <c r="D21" s="7">
-        <v>711863</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>921</v>
-      </c>
-      <c r="I21" s="7">
-        <v>643580</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1867</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1355442</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
